--- a/Cards/0-card-to-number.xlsx
+++ b/Cards/0-card-to-number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Matteo\Coding\Card_Generator_Bot\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Matteo\Coding\Discord_Deck_Stack_Memorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4A7BA-792E-4BA3-9682-A952D1DCBC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A53E3-254B-43FD-8500-7C478A27AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E13D52AD-0902-41A3-8D40-D4DBE206FCBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E13D52AD-0902-41A3-8D40-D4DBE206FCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Numbers</t>
   </si>
@@ -364,7 +364,16 @@
     <t>Memorandum</t>
   </si>
   <si>
-    <t>MEMORANDUM</t>
+    <t>Mnemonica</t>
+  </si>
+  <si>
+    <t>Redford</t>
+  </si>
+  <si>
+    <t>Aronson</t>
+  </si>
+  <si>
+    <t>Daortiz</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,21 +731,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D2AC09-0C28-4C63-A62E-B438FEC1B86D}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +762,17 @@
       <c r="E1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,14 +782,23 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
+      <c r="D2">
+        <v>51</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -780,14 +808,23 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -797,14 +834,23 @@
       <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
-        <v>107</v>
+      <c r="D4">
+        <v>28</v>
       </c>
       <c r="E4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -814,14 +860,23 @@
       <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -831,14 +886,23 @@
       <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D6">
+        <v>8</v>
       </c>
       <c r="E6">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -848,14 +912,23 @@
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7">
+        <v>23</v>
       </c>
       <c r="E7">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -865,14 +938,23 @@
       <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="D8">
+        <v>41</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -882,14 +964,23 @@
       <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
+      <c r="D9">
+        <v>14</v>
       </c>
       <c r="E9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -899,14 +990,23 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="D10">
+        <v>17</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -916,14 +1016,23 @@
       <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="D11">
+        <v>38</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -933,14 +1042,23 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
+      <c r="D12">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -950,14 +1068,23 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="D13">
+        <v>11</v>
       </c>
       <c r="E13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -967,14 +1094,23 @@
       <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>106</v>
+      <c r="D14">
+        <v>35</v>
       </c>
       <c r="E14">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -984,14 +1120,23 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
+      <c r="D15">
+        <v>39</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1001,14 +1146,23 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
+      <c r="D16">
+        <v>19</v>
       </c>
       <c r="E16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1018,14 +1172,23 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
+      <c r="D17">
+        <v>12</v>
       </c>
       <c r="E17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1035,14 +1198,23 @@
       <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
-        <v>104</v>
+      <c r="D18">
+        <v>42</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1052,14 +1224,23 @@
       <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
+      <c r="D19">
+        <v>25</v>
       </c>
       <c r="E19">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1069,14 +1250,23 @@
       <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
+      <c r="D20">
+        <v>6</v>
       </c>
       <c r="E20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1086,14 +1276,23 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
+      <c r="D21">
+        <v>3</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1103,14 +1302,23 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
-        <v>48</v>
+      <c r="D22">
+        <v>29</v>
       </c>
       <c r="E22">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1120,14 +1328,23 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>29</v>
+      <c r="D23">
+        <v>52</v>
       </c>
       <c r="E23">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1137,14 +1354,23 @@
       <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
+      <c r="D24">
+        <v>49</v>
       </c>
       <c r="E24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1154,14 +1380,23 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
+      <c r="D25">
+        <v>32</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1171,14 +1406,23 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
+      <c r="D26">
+        <v>46</v>
       </c>
       <c r="E26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1188,14 +1432,23 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
+      <c r="D27">
+        <v>26</v>
       </c>
       <c r="E27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1205,14 +1458,23 @@
       <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
+      <c r="D28">
+        <v>43</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1222,14 +1484,23 @@
       <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
+      <c r="D29">
+        <v>27</v>
       </c>
       <c r="E29">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1239,14 +1510,23 @@
       <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" t="s">
-        <v>30</v>
+      <c r="D30">
+        <v>4</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1256,14 +1536,23 @@
       <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1273,14 +1562,23 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
+      <c r="D32">
+        <v>30</v>
       </c>
       <c r="E32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1290,14 +1588,23 @@
       <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
-        <v>27</v>
+      <c r="D33">
+        <v>50</v>
       </c>
       <c r="E33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1307,14 +1614,23 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
+      <c r="D34">
+        <v>47</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1324,14 +1640,23 @@
       <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
+      <c r="D35">
+        <v>33</v>
       </c>
       <c r="E35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>51</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1341,14 +1666,23 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D36" t="s">
-        <v>38</v>
+      <c r="D36">
+        <v>44</v>
       </c>
       <c r="E36">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>51</v>
+      </c>
+      <c r="G36">
+        <v>47</v>
+      </c>
+      <c r="H36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1358,14 +1692,23 @@
       <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" t="s">
-        <v>2</v>
+      <c r="D37">
+        <v>24</v>
       </c>
       <c r="E37">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1375,14 +1718,23 @@
       <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="D38" t="s">
-        <v>20</v>
+      <c r="D38">
+        <v>36</v>
       </c>
       <c r="E38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>39</v>
+      </c>
+      <c r="H38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1392,14 +1744,23 @@
       <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
+      <c r="D39">
+        <v>13</v>
       </c>
       <c r="E39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1409,14 +1770,23 @@
       <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s">
-        <v>36</v>
+      <c r="D40">
+        <v>18</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>31</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1426,14 +1796,23 @@
       <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="D41" t="s">
-        <v>22</v>
+      <c r="D41">
+        <v>7</v>
       </c>
       <c r="E41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1443,14 +1822,23 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="D42" t="s">
-        <v>44</v>
+      <c r="D42">
+        <v>10</v>
       </c>
       <c r="E42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>49</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1460,14 +1848,23 @@
       <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="D43" t="s">
-        <v>105</v>
+      <c r="D43">
+        <v>21</v>
       </c>
       <c r="E43">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>45</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1477,14 +1874,23 @@
       <c r="C44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
-        <v>26</v>
+      <c r="D44">
+        <v>40</v>
       </c>
       <c r="E44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>41</v>
+      </c>
+      <c r="H44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1494,14 +1900,23 @@
       <c r="C45" t="s">
         <v>92</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
+      <c r="D45">
+        <v>16</v>
       </c>
       <c r="E45">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>37</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1511,14 +1926,23 @@
       <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
-        <v>18</v>
+      <c r="D46">
+        <v>15</v>
       </c>
       <c r="E46">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>33</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1528,14 +1952,23 @@
       <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="D47" t="s">
-        <v>39</v>
+      <c r="D47">
+        <v>37</v>
       </c>
       <c r="E47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>29</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1545,14 +1978,23 @@
       <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" t="s">
-        <v>1</v>
+      <c r="D48">
+        <v>22</v>
       </c>
       <c r="E48">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1562,14 +2004,23 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" t="s">
-        <v>21</v>
+      <c r="D49">
+        <v>9</v>
       </c>
       <c r="E49">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1579,14 +2030,23 @@
       <c r="C50" t="s">
         <v>103</v>
       </c>
-      <c r="D50" t="s">
-        <v>42</v>
+      <c r="D50">
+        <v>34</v>
       </c>
       <c r="E50">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1596,14 +2056,23 @@
       <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="s">
-        <v>35</v>
+      <c r="D51">
+        <v>45</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>52</v>
+      </c>
+      <c r="G51">
+        <v>13</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1613,14 +2082,23 @@
       <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
-        <v>23</v>
+      <c r="D52">
+        <v>48</v>
       </c>
       <c r="E52">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1630,14 +2108,23 @@
       <c r="C53" t="s">
         <v>99</v>
       </c>
-      <c r="D53" t="s">
-        <v>45</v>
+      <c r="D53">
+        <v>31</v>
       </c>
       <c r="E53">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
